--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -12051,7 +12051,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Guardia Vieja S.A.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/09/2022</t>
+          <t>07/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8272,12 +8272,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/10/2022</t>
+          <t>28/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>07/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Besalco Energía Renovable S.A.</t>
+          <t>Besalco Transmisión SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F249" t="n">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>25/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F269" t="n">

--- a/data/Los Andes.xlsx
+++ b/data/Los Andes.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
